--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3487.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3487.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.019606831889864</v>
+        <v>0.7832693457603455</v>
       </c>
       <c r="B1">
-        <v>1.702956282500053</v>
+        <v>3.380542516708374</v>
       </c>
       <c r="C1">
-        <v>5.289060240023042</v>
+        <v>3.547896862030029</v>
       </c>
       <c r="D1">
-        <v>4.994713568697217</v>
+        <v>2.932676792144775</v>
       </c>
       <c r="E1">
-        <v>1.735069123851913</v>
+        <v>1.781857132911682</v>
       </c>
     </row>
   </sheetData>
